--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,25 +43,28 @@
     <t>die</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>panic</t>
@@ -70,39 +73,45 @@
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>no</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -124,73 +136,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
@@ -199,40 +214,43 @@
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -709,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -759,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -809,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -859,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.839041095890411</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9086161879895561</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.725</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,31 +945,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>0.9009009009009009</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>101</v>
+      </c>
+      <c r="N8">
+        <v>0.99</v>
+      </c>
+      <c r="O8">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>11</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8">
-        <v>0.9069767441860465</v>
-      </c>
-      <c r="L8">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8873239436619719</v>
+        <v>0.890625</v>
       </c>
       <c r="L10">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6686046511627907</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C11">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8793103448275862</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C12">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="D12">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6610169491525424</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.8723404255319149</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6410256410256411</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6174496644295302</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="C15">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.8584905660377359</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L15">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5861111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>0.8484848484848485</v>
@@ -1409,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5064935064935064</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L19">
         <v>32</v>
@@ -1501,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4888888888888889</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L20">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L20">
-        <v>31</v>
-      </c>
       <c r="M20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3134920634920635</v>
+        <v>0.3125</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7708333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2010723860589812</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,37 +1727,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009980682549903412</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3075</v>
+        <v>266</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.7529411764705882</v>
+        <v>0.7411764705882353</v>
       </c>
       <c r="L24">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M24">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,49 +1777,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006268864638959833</v>
+        <v>0.01775898520084566</v>
       </c>
       <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+      <c r="F25">
+        <v>0.75</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2323</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L25">
+        <v>67</v>
+      </c>
+      <c r="M25">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>27</v>
-      </c>
-      <c r="D25">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <v>0.44</v>
-      </c>
-      <c r="F25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4280</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L25">
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,141 +1827,237 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005447470817120622</v>
+        <v>0.01178010471204189</v>
       </c>
       <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>0.39</v>
+      </c>
+      <c r="F26">
+        <v>0.61</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2265</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>0.7084745762711865</v>
+      </c>
+      <c r="L26">
+        <v>209</v>
+      </c>
+      <c r="M26">
+        <v>209</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.008389803162310423</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0.24</v>
+      </c>
+      <c r="F27">
+        <v>0.76</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3073</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L27">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.008152806894945261</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4258</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28">
+        <v>0.694560669456067</v>
+      </c>
+      <c r="L28">
+        <v>166</v>
+      </c>
+      <c r="M28">
+        <v>166</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.007594936708860759</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>0.43</v>
+      </c>
+      <c r="F29">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>5096</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L29">
+        <v>61</v>
+      </c>
+      <c r="M29">
+        <v>61</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>28</v>
       </c>
-      <c r="D26">
-        <v>53</v>
-      </c>
-      <c r="E26">
-        <v>0.47</v>
-      </c>
-      <c r="F26">
-        <v>0.53</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>5112</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.7127659574468085</v>
-      </c>
-      <c r="L26">
-        <v>67</v>
-      </c>
-      <c r="M26">
-        <v>67</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.711864406779661</v>
-      </c>
-      <c r="L27">
-        <v>210</v>
-      </c>
-      <c r="M27">
-        <v>210</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.7</v>
-      </c>
-      <c r="L28">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M28">
-        <v>35</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L29">
-        <v>45</v>
-      </c>
-      <c r="M29">
-        <v>45</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B30">
+        <v>0.006242448650825614</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>0.49</v>
+      </c>
+      <c r="F30">
+        <v>0.51</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4935</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L30">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1960,16 +2074,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.6820083682008368</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.6404494382022472</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L32">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.6190476190476191</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,47 +2173,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.5573770491803278</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L35">
+        <v>39</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>34</v>
-      </c>
-      <c r="M35">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.543859649122807</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.5068493150684932</v>
+        <v>0.453125</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.4615384615384616</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,15 +2277,15 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.421875</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L39">
         <v>27</v>
@@ -2189,21 +2303,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.03174603174603174</v>
+        <v>0.05137614678899083</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>0.93</v>
@@ -2215,85 +2329,189 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1159</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.007841907151819323</v>
+        <v>0.05008347245409015</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N41">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.34</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3163</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K42">
-        <v>0.005026135906714918</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N42">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="O42">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4949</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.004866653688923496</v>
+        <v>0.01278676194057917</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="O43">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>5112</v>
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.01212881639481389</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>0.91</v>
+      </c>
+      <c r="O44">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45">
+        <v>0.008152806894945261</v>
+      </c>
+      <c r="L45">
+        <v>35</v>
+      </c>
+      <c r="M45">
+        <v>70</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
+      </c>
+      <c r="M46">
+        <v>61</v>
+      </c>
+      <c r="N46">
+        <v>0.49</v>
+      </c>
+      <c r="O46">
+        <v>0.51</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47">
+        <v>0.005852516582130316</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>69</v>
+      </c>
+      <c r="N47">
+        <v>0.43</v>
+      </c>
+      <c r="O47">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>5096</v>
       </c>
     </row>
   </sheetData>
